--- a/Documentation/ProposalContentGurwarrisSohiSmartTennisBallMachine.xlsx
+++ b/Documentation/ProposalContentGurwarrisSohiSmartTennisBallMachine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC57500-3D3C-48AF-96F0-0AA13E0B7BE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6CEF1-C88B-4687-943E-DE76131E3433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Submission Date</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>SensorsEffectors choices</t>
-  </si>
-  <si>
-    <t>2019-09-D=12</t>
   </si>
   <si>
     <t>Smart Tennis Ball Machine</t>
@@ -188,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,8 +554,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
+      <c r="B1" s="5">
+        <v>43720</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -755,10 +755,10 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <f>DataEntry!B1</f>
-        <v>2019-09-D=12</v>
+        <v>43720</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>

--- a/Documentation/ProposalContentGurwarrisSohiSmartTennisBallMachine.xlsx
+++ b/Documentation/ProposalContentGurwarrisSohiSmartTennisBallMachine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6CEF1-C88B-4687-943E-DE76131E3433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F602F-E360-409E-A213-F243A60CD34C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,38 +103,17 @@
     <t>N/A</t>
   </si>
   <si>
-    <r>
-      <t>Baldwin, D. M. (1977). Using the tennis ball serving machine. The Physics Teacher, 15(7), 432–434. doi: 10.1119/1.2339719,5. Understanding the Motion of the Ball (Ball Trajectories). (n.d.). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tennis Science for Tennis Players</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. doi: 10.9783/9780812201468.72,</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Tennis ball machines us a container filled with a number of balls (100 balls by present standards), and then some machine use pressure to launch the ball and at the end a pair of tires placed on either side of the ejection tube either horizontally or vertically to finally launch the ball give the needed spin for each serve type. The whole contraption at the end is moved and horizontally and vertically to aim the ball trajectory. This part only affects the elevation and direction of the ball. But a ball can have same max height and distance with different elevations,  with different launch speeds. </t>
+  </si>
+  <si>
+    <t>Baldwin, D. M. (1977). Using the tennis ball serving machine. The Physics Teacher, 15(7), 432–434. doi: 10.1119/1.2339719,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
@@ -539,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -643,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -802,7 +774,7 @@
       </c>
       <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>Baldwin, D. M. (1977). Using the tennis ball serving machine. The Physics Teacher, 15(7), 432–434. doi: 10.1119/1.2339719,5. Understanding the Motion of the Ball (Ball Trajectories). (n.d.). Tennis Science for Tennis Players. doi: 10.9783/9780812201468.72,</v>
+        <v>Baldwin, D. M. (1977). Using the tennis ball serving machine. The Physics Teacher, 15(7), 432–434. doi: 10.1119/1.2339719,</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
